--- a/User Preferences.xlsx
+++ b/User Preferences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EF3X\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05875E23-E7C3-40B3-A407-CE2E947BAB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E45235-FC8B-47E1-8227-8BB968B883FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="780" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="3135" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Kaunas</t>
+    <t>Berlin</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="C2" s="1">
         <v>45543</v>
@@ -448,7 +448,7 @@
       </c>
       <c r="H2" t="str">
         <f>"checkin=" &amp; TEXT(Sheet1!B2, "yyyy-mm-dd") &amp; "&amp;checkout=" &amp; TEXT(Sheet1!C2, "yyyy-mm-dd") &amp; "&amp;group_adults=" &amp; Sheet1!D2 &amp;"&amp;no_rooms="&amp;Sheet1!F2&amp;"&amp;group_childrens="&amp;Sheet1!E2 &amp;"&amp;no_rooms="&amp;Sheet1!E2 &amp;"&amp;age=0&amp;age=0&amp;age=0"&amp;"&amp;nflt=price%3DEUR-min-"&amp;Sheet1!G2&amp;"-1"</f>
-        <v>checkin=2024-09-05&amp;checkout=2024-09-08&amp;group_adults=2&amp;no_rooms=1&amp;group_childrens=0&amp;no_rooms=0&amp;age=0&amp;age=0&amp;age=0&amp;nflt=price%3DEUR-min-200-1</v>
+        <v>checkin=2024-09-04&amp;checkout=2024-09-08&amp;group_adults=2&amp;no_rooms=1&amp;group_childrens=0&amp;no_rooms=0&amp;age=0&amp;age=0&amp;age=0&amp;nflt=price%3DEUR-min-200-1</v>
       </c>
     </row>
   </sheetData>
